--- a/Data/软件测试数据/single_test_1.xlsx
+++ b/Data/软件测试数据/single_test_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="8257" windowHeight="8392"/>
+    <workbookView windowWidth="27952" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1747,7 +1747,7 @@
   <dimension ref="A1:IT1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
